--- a/Webpage Views Report/Usage-2020-04-27-21-37-03.xlsx
+++ b/Webpage Views Report/Usage-2020-04-27-21-37-03.xlsx
@@ -1,17 +1,30 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="Calc"/>
-  <workbookPr backupFile="false" showObjects="all" date1904="false"/>
-  <workbookProtection/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23001"/>
+  <workbookPr defaultThemeVersion="166925"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\VAI\GitHub\Covital\Webpage Views Report\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C311865-A1E1-4F7C-BEE7-E29E9B57EF6B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="24240" windowHeight="13140" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Usage-2020-04-27-21-37-03" sheetId="1" state="visible" r:id="rId2"/>
+    <sheet name="Usage-2020-04-27-21-37-03" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
+  <calcPr calcId="191029"/>
   <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+      </xcalcf:calcFeatures>
+    </ext>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
       <loext:extCalcPr stringRefSyntax="CalcA1"/>
     </ext>
@@ -20,240 +33,508 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="68">
-  <si>
-    <t xml:space="preserve">Version</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Report</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Usage</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DistributionID</t>
-  </si>
-  <si>
-    <t xml:space="preserve">EYDUEUF98WRPX</t>
-  </si>
-  <si>
-    <t xml:space="preserve">StartDateUTC</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2020-04-07 00:00:00</t>
-  </si>
-  <si>
-    <t xml:space="preserve">EndDateUTC</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2020-04-27 23:59:59</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GeneratedTimeUTC</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2020-04-27 21:37:03</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BillingRegion</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ALL</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Granularity</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ONE_DAY</t>
-  </si>
-  <si>
-    <t xml:space="preserve">FriendlyName</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TimeBucket</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Http</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Https</t>
-  </si>
-  <si>
-    <t xml:space="preserve">HttpBytes</t>
-  </si>
-  <si>
-    <t xml:space="preserve">HttpsBytes</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BytesIn</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BytesOut</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fle</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Date</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Total Views</t>
-  </si>
-  <si>
-    <t xml:space="preserve">EYDUEUF98WRPX (main.covital.com.mx)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2020-04-07</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2020-04-08 00:00:00</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2020-04-08</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2020-04-09 00:00:00</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2020-04-09</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2020-04-10 00:00:00</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2020-04-10</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2020-04-11 00:00:00</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2020-04-11</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2020-04-12 00:00:00</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2020-04-12</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2020-04-13 00:00:00</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2020-04-13</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2020-04-14 00:00:00</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2020-04-14</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2020-04-15 00:00:00</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2020-04-15</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2020-04-16 00:00:00</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2020-04-16</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2020-04-17 00:00:00</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2020-04-17</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2020-04-18 00:00:00</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2020-04-18</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2020-04-19 00:00:00</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2020-04-19</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2020-04-20 00:00:00</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2020-04-20</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2020-04-21 00:00:00</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2020-04-21</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2020-04-22 00:00:00</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2020-04-22</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2020-04-23 00:00:00</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2020-04-23</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2020-04-24 00:00:00</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2020-04-24</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2020-04-25 00:00:00</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2020-04-25</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2020-04-26 00:00:00</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2020-04-26</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2020-04-27 00:00:00</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2020-04-27</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="227" uniqueCount="162">
+  <si>
+    <t>Version</t>
+  </si>
+  <si>
+    <t>Report</t>
+  </si>
+  <si>
+    <t>Usage</t>
+  </si>
+  <si>
+    <t>DistributionID</t>
+  </si>
+  <si>
+    <t>EYDUEUF98WRPX</t>
+  </si>
+  <si>
+    <t>StartDateUTC</t>
+  </si>
+  <si>
+    <t>2020-04-07 00:00:00</t>
+  </si>
+  <si>
+    <t>EndDateUTC</t>
+  </si>
+  <si>
+    <t>2020-04-27 23:59:59</t>
+  </si>
+  <si>
+    <t>GeneratedTimeUTC</t>
+  </si>
+  <si>
+    <t>2020-04-27 21:37:03</t>
+  </si>
+  <si>
+    <t>BillingRegion</t>
+  </si>
+  <si>
+    <t>ALL</t>
+  </si>
+  <si>
+    <t>Granularity</t>
+  </si>
+  <si>
+    <t>ONE_DAY</t>
+  </si>
+  <si>
+    <t>FriendlyName</t>
+  </si>
+  <si>
+    <t>TimeBucket</t>
+  </si>
+  <si>
+    <t>Http</t>
+  </si>
+  <si>
+    <t>Https</t>
+  </si>
+  <si>
+    <t>HttpBytes</t>
+  </si>
+  <si>
+    <t>HttpsBytes</t>
+  </si>
+  <si>
+    <t>BytesIn</t>
+  </si>
+  <si>
+    <t>BytesOut</t>
+  </si>
+  <si>
+    <t>Fle</t>
+  </si>
+  <si>
+    <t>Date</t>
+  </si>
+  <si>
+    <t>Total Views</t>
+  </si>
+  <si>
+    <t>EYDUEUF98WRPX (main.covital.com.mx)</t>
+  </si>
+  <si>
+    <t>2020-04-07</t>
+  </si>
+  <si>
+    <t>2020-04-08 00:00:00</t>
+  </si>
+  <si>
+    <t>2020-04-08</t>
+  </si>
+  <si>
+    <t>2020-04-09 00:00:00</t>
+  </si>
+  <si>
+    <t>2020-04-09</t>
+  </si>
+  <si>
+    <t>2020-04-10 00:00:00</t>
+  </si>
+  <si>
+    <t>2020-04-10</t>
+  </si>
+  <si>
+    <t>2020-04-11 00:00:00</t>
+  </si>
+  <si>
+    <t>2020-04-11</t>
+  </si>
+  <si>
+    <t>2020-04-12 00:00:00</t>
+  </si>
+  <si>
+    <t>2020-04-12</t>
+  </si>
+  <si>
+    <t>2020-04-13 00:00:00</t>
+  </si>
+  <si>
+    <t>2020-04-13</t>
+  </si>
+  <si>
+    <t>2020-04-14 00:00:00</t>
+  </si>
+  <si>
+    <t>2020-04-14</t>
+  </si>
+  <si>
+    <t>2020-04-15 00:00:00</t>
+  </si>
+  <si>
+    <t>2020-04-15</t>
+  </si>
+  <si>
+    <t>2020-04-16 00:00:00</t>
+  </si>
+  <si>
+    <t>2020-04-16</t>
+  </si>
+  <si>
+    <t>2020-04-17 00:00:00</t>
+  </si>
+  <si>
+    <t>2020-04-17</t>
+  </si>
+  <si>
+    <t>2020-04-18 00:00:00</t>
+  </si>
+  <si>
+    <t>2020-04-18</t>
+  </si>
+  <si>
+    <t>2020-04-19 00:00:00</t>
+  </si>
+  <si>
+    <t>2020-04-19</t>
+  </si>
+  <si>
+    <t>2020-04-20 00:00:00</t>
+  </si>
+  <si>
+    <t>2020-04-20</t>
+  </si>
+  <si>
+    <t>2020-04-21 00:00:00</t>
+  </si>
+  <si>
+    <t>2020-04-21</t>
+  </si>
+  <si>
+    <t>2020-04-22 00:00:00</t>
+  </si>
+  <si>
+    <t>2020-04-22</t>
+  </si>
+  <si>
+    <t>2020-04-23 00:00:00</t>
+  </si>
+  <si>
+    <t>2020-04-23</t>
+  </si>
+  <si>
+    <t>2020-04-24 00:00:00</t>
+  </si>
+  <si>
+    <t>2020-04-24</t>
+  </si>
+  <si>
+    <t>2020-04-25 00:00:00</t>
+  </si>
+  <si>
+    <t>2020-04-25</t>
+  </si>
+  <si>
+    <t>2020-04-26 00:00:00</t>
+  </si>
+  <si>
+    <t>2020-04-26</t>
+  </si>
+  <si>
+    <t>2020-04-27 00:00:00</t>
+  </si>
+  <si>
+    <t>2020-04-27</t>
+  </si>
+  <si>
+    <t>2020-04-28</t>
+  </si>
+  <si>
+    <t>2020-04-29</t>
+  </si>
+  <si>
+    <t>2020-04-30</t>
+  </si>
+  <si>
+    <t>2020-05-01</t>
+  </si>
+  <si>
+    <t>2020-05-02</t>
+  </si>
+  <si>
+    <t>2020-05-03</t>
+  </si>
+  <si>
+    <t>2020-05-04</t>
+  </si>
+  <si>
+    <t>2020-05-05</t>
+  </si>
+  <si>
+    <t>2020-05-06</t>
+  </si>
+  <si>
+    <t>2020-05-07</t>
+  </si>
+  <si>
+    <t>2020-05-08</t>
+  </si>
+  <si>
+    <t>2020-05-09</t>
+  </si>
+  <si>
+    <t>2020-05-10</t>
+  </si>
+  <si>
+    <t>2020-05-11</t>
+  </si>
+  <si>
+    <t>2020-05-12</t>
+  </si>
+  <si>
+    <t>2020-05-13</t>
+  </si>
+  <si>
+    <t>2020-05-14</t>
+  </si>
+  <si>
+    <t>2020-05-15</t>
+  </si>
+  <si>
+    <t>2020-05-16</t>
+  </si>
+  <si>
+    <t>2020-05-17</t>
+  </si>
+  <si>
+    <t>2020-05-18</t>
+  </si>
+  <si>
+    <t>2020-05-19</t>
+  </si>
+  <si>
+    <t>2020-05-20</t>
+  </si>
+  <si>
+    <t>2020-05-21</t>
+  </si>
+  <si>
+    <t>2020-05-22</t>
+  </si>
+  <si>
+    <t>2020-05-23</t>
+  </si>
+  <si>
+    <t>2020-05-24</t>
+  </si>
+  <si>
+    <t>2020-05-25</t>
+  </si>
+  <si>
+    <t>2020-05-26</t>
+  </si>
+  <si>
+    <t>2020-05-27</t>
+  </si>
+  <si>
+    <t>2020-05-28</t>
+  </si>
+  <si>
+    <t>2020-05-29</t>
+  </si>
+  <si>
+    <t>2020-05-30</t>
+  </si>
+  <si>
+    <t>2020-05-31</t>
+  </si>
+  <si>
+    <t>2020-06-01</t>
+  </si>
+  <si>
+    <t>2020-06-02</t>
+  </si>
+  <si>
+    <t>2020-06-03</t>
+  </si>
+  <si>
+    <t>2020-06-04</t>
+  </si>
+  <si>
+    <t>2020-06-05</t>
+  </si>
+  <si>
+    <t>2020-06-06</t>
+  </si>
+  <si>
+    <t>2020-06-07</t>
+  </si>
+  <si>
+    <t>2020-06-08</t>
+  </si>
+  <si>
+    <t>2020-06-09</t>
+  </si>
+  <si>
+    <t>2020-06-10</t>
+  </si>
+  <si>
+    <t>2020-06-11</t>
+  </si>
+  <si>
+    <t>2020-06-12</t>
+  </si>
+  <si>
+    <t>2020-06-13</t>
+  </si>
+  <si>
+    <t>2020-06-14</t>
+  </si>
+  <si>
+    <t>2020-06-15</t>
+  </si>
+  <si>
+    <t>2020-06-16</t>
+  </si>
+  <si>
+    <t>2020-06-17</t>
+  </si>
+  <si>
+    <t>2020-06-18</t>
+  </si>
+  <si>
+    <t>2020-06-19</t>
+  </si>
+  <si>
+    <t>2020-06-20</t>
+  </si>
+  <si>
+    <t>2020-06-21</t>
+  </si>
+  <si>
+    <t>2020-06-22</t>
+  </si>
+  <si>
+    <t>2020-06-23</t>
+  </si>
+  <si>
+    <t>2020-06-24</t>
+  </si>
+  <si>
+    <t>2020-06-25</t>
+  </si>
+  <si>
+    <t>2020-06-26</t>
+  </si>
+  <si>
+    <t>2020-06-27</t>
+  </si>
+  <si>
+    <t>2020-06-28</t>
+  </si>
+  <si>
+    <t>2020-06-29</t>
+  </si>
+  <si>
+    <t>2020-06-30</t>
+  </si>
+  <si>
+    <t>2020-07-01</t>
+  </si>
+  <si>
+    <t>2020-07-02</t>
+  </si>
+  <si>
+    <t>2020-07-03</t>
+  </si>
+  <si>
+    <t>2020-07-04</t>
+  </si>
+  <si>
+    <t>2020-07-05</t>
+  </si>
+  <si>
+    <t>2020-07-06</t>
+  </si>
+  <si>
+    <t>2020-07-07</t>
+  </si>
+  <si>
+    <t>2020-07-08</t>
+  </si>
+  <si>
+    <t>2020-07-09</t>
+  </si>
+  <si>
+    <t>2020-07-10</t>
+  </si>
+  <si>
+    <t>2020-07-11</t>
+  </si>
+  <si>
+    <t>2020-07-12</t>
+  </si>
+  <si>
+    <t>2020-07-13</t>
+  </si>
+  <si>
+    <t>2020-07-14</t>
+  </si>
+  <si>
+    <t>2020-07-15</t>
+  </si>
+  <si>
+    <t>2020-07-16</t>
+  </si>
+  <si>
+    <t>2020-07-17</t>
+  </si>
+  <si>
+    <t>2020-07-18</t>
+  </si>
+  <si>
+    <t>2020-07-19</t>
+  </si>
+  <si>
+    <t>2020-07-20</t>
+  </si>
+  <si>
+    <t>2020-07-21</t>
+  </si>
+  <si>
+    <t>2020-07-22</t>
+  </si>
+  <si>
+    <t>2020-07-23</t>
+  </si>
+  <si>
+    <t>2020-07-24</t>
+  </si>
+  <si>
+    <t>2020-07-25</t>
+  </si>
+  <si>
+    <t>2020-07-26</t>
+  </si>
+  <si>
+    <t>2020-07-27</t>
+  </si>
+  <si>
+    <t>2020-07-28</t>
+  </si>
+  <si>
+    <t>2020-07-29</t>
+  </si>
+  <si>
+    <t>2020-07-30</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="2">
-    <numFmt numFmtId="164" formatCode="General"/>
-    <numFmt numFmtId="165" formatCode="@"/>
-  </numFmts>
-  <fonts count="4">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
     </font>
     <font>
-      <sz val="10"/>
+      <sz val="8"/>
       <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -265,7 +546,7 @@
     </fill>
   </fills>
   <borders count="1">
-    <border diagonalUp="false" diagonalDown="false">
+    <border>
       <left/>
       <right/>
       <top/>
@@ -273,53 +554,19 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="20">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+  <cellStyleXfs count="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="3">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="6">
+  <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Comma" xfId="15" builtinId="3"/>
-    <cellStyle name="Comma [0]" xfId="16" builtinId="6"/>
-    <cellStyle name="Currency" xfId="17" builtinId="4"/>
-    <cellStyle name="Currency [0]" xfId="18" builtinId="7"/>
-    <cellStyle name="Percent" xfId="19" builtinId="5"/>
   </cellStyles>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <indexedColors>
       <rgbColor rgb="FF000000"/>
@@ -378,27 +625,45 @@
       <rgbColor rgb="FF993366"/>
       <rgbColor rgb="FF333399"/>
       <rgbColor rgb="FF333333"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
     </indexedColors>
   </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
+  <c:style val="2"/>
   <c:chart>
     <c:autoTitleDeleted val="1"/>
     <c:view3D>
       <c:rotX val="11"/>
       <c:rotY val="25"/>
       <c:rAngAx val="1"/>
-      <c:perspective val="40"/>
     </c:view3D>
     <c:floor>
+      <c:thickness val="0"/>
       <c:spPr>
         <a:solidFill>
-          <a:srgbClr val="cccccc"/>
+          <a:srgbClr val="CCCCCC"/>
         </a:solidFill>
         <a:ln>
           <a:noFill/>
@@ -406,26 +671,29 @@
       </c:spPr>
     </c:floor>
     <c:sideWall>
+      <c:thickness val="0"/>
       <c:spPr>
         <a:noFill/>
         <a:ln>
           <a:solidFill>
-            <a:srgbClr val="b3b3b3"/>
+            <a:srgbClr val="B3B3B3"/>
           </a:solidFill>
         </a:ln>
       </c:spPr>
     </c:sideWall>
     <c:backWall>
+      <c:thickness val="0"/>
       <c:spPr>
         <a:noFill/>
         <a:ln>
           <a:solidFill>
-            <a:srgbClr val="b3b3b3"/>
+            <a:srgbClr val="B3B3B3"/>
           </a:solidFill>
         </a:ln>
       </c:spPr>
     </c:backWall>
     <c:plotArea>
+      <c:layout/>
       <c:bar3DChart>
         <c:barDir val="col"/>
         <c:grouping val="clustered"/>
@@ -446,7 +714,7 @@
           </c:tx>
           <c:spPr>
             <a:solidFill>
-              <a:srgbClr val="ff0000"/>
+              <a:srgbClr val="FF0000"/>
             </a:solidFill>
             <a:ln>
               <a:noFill/>
@@ -454,15 +722,23 @@
           </c:spPr>
           <c:invertIfNegative val="0"/>
           <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
             <c:txPr>
               <a:bodyPr/>
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+                  <a:defRPr sz="1000" b="0" strike="noStrike" spc="-1">
                     <a:latin typeface="Arial"/>
                   </a:defRPr>
                 </a:pPr>
+                <a:endParaRPr lang="es-MX"/>
               </a:p>
             </c:txPr>
             <c:showLegendKey val="0"/>
@@ -470,14 +746,20 @@
             <c:showCatName val="0"/>
             <c:showSerName val="0"/>
             <c:showPercent val="0"/>
+            <c:showBubbleSize val="1"/>
             <c:separator> </c:separator>
             <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="0"/>
+              </c:ext>
+            </c:extLst>
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>'Usage-2020-04-27-21-37-03'!$L$11:$L$31</c:f>
+              <c:f>'Usage-2020-04-27-21-37-03'!$L$11:$L$125</c:f>
               <c:strCache>
-                <c:ptCount val="21"/>
+                <c:ptCount val="115"/>
                 <c:pt idx="0">
                   <c:v>2020-04-07</c:v>
                 </c:pt>
@@ -540,16 +822,298 @@
                 </c:pt>
                 <c:pt idx="20">
                   <c:v>2020-04-27</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>2020-04-28</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>2020-04-29</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>2020-04-30</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>2020-05-01</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>2020-05-02</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>2020-05-03</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>2020-05-04</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>2020-05-05</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>2020-05-06</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>2020-05-07</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>2020-05-08</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>2020-05-09</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>2020-05-10</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>2020-05-11</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>2020-05-12</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>2020-05-13</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>2020-05-14</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>2020-05-15</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>2020-05-16</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>2020-05-17</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>2020-05-18</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>2020-05-19</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>2020-05-20</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>2020-05-21</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>2020-05-22</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>2020-05-23</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>2020-05-24</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>2020-05-25</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>2020-05-26</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>2020-05-27</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>2020-05-28</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>2020-05-29</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>2020-05-30</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>2020-05-31</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>2020-06-01</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>2020-06-02</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>2020-06-03</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>2020-06-04</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>2020-06-05</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>2020-06-06</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>2020-06-07</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>2020-06-08</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>2020-06-09</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>2020-06-10</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>2020-06-11</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>2020-06-12</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>2020-06-13</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>2020-06-14</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>2020-06-15</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>2020-06-16</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>2020-06-17</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>2020-06-18</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>2020-06-19</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>2020-06-20</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>2020-06-21</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>2020-06-22</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>2020-06-23</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>2020-06-24</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>2020-06-25</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>2020-06-26</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>2020-06-27</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>2020-06-28</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>2020-06-29</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>2020-06-30</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>2020-07-01</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>2020-07-02</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>2020-07-03</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>2020-07-04</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>2020-07-05</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>2020-07-06</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>2020-07-07</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>2020-07-08</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>2020-07-09</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>2020-07-10</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>2020-07-11</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>2020-07-12</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>2020-07-13</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>2020-07-14</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>2020-07-15</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>2020-07-16</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>2020-07-17</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>2020-07-18</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>2020-07-19</c:v>
+                </c:pt>
+                <c:pt idx="104">
+                  <c:v>2020-07-20</c:v>
+                </c:pt>
+                <c:pt idx="105">
+                  <c:v>2020-07-21</c:v>
+                </c:pt>
+                <c:pt idx="106">
+                  <c:v>2020-07-22</c:v>
+                </c:pt>
+                <c:pt idx="107">
+                  <c:v>2020-07-23</c:v>
+                </c:pt>
+                <c:pt idx="108">
+                  <c:v>2020-07-24</c:v>
+                </c:pt>
+                <c:pt idx="109">
+                  <c:v>2020-07-25</c:v>
+                </c:pt>
+                <c:pt idx="110">
+                  <c:v>2020-07-26</c:v>
+                </c:pt>
+                <c:pt idx="111">
+                  <c:v>2020-07-27</c:v>
+                </c:pt>
+                <c:pt idx="112">
+                  <c:v>2020-07-28</c:v>
+                </c:pt>
+                <c:pt idx="113">
+                  <c:v>2020-07-29</c:v>
+                </c:pt>
+                <c:pt idx="114">
+                  <c:v>2020-07-30</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Usage-2020-04-27-21-37-03'!$M$11:$M$31</c:f>
+              <c:f>'Usage-2020-04-27-21-37-03'!$M$11:$M$125</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="21"/>
+                <c:ptCount val="115"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -563,60 +1127,355 @@
                   <c:v>25</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>722</c:v>
+                  <c:v>717</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>273</c:v>
+                  <c:v>269</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>420</c:v>
+                  <c:v>417</c:v>
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>446</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>1528</c:v>
+                  <c:v>1509</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>464</c:v>
+                  <c:v>463</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>398</c:v>
+                  <c:v>396</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>133</c:v>
+                  <c:v>129</c:v>
                 </c:pt>
                 <c:pt idx="12">
                   <c:v>131</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>249</c:v>
+                  <c:v>242</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>1057</c:v>
+                  <c:v>1046</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>1227</c:v>
+                  <c:v>1226</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>609</c:v>
+                  <c:v>608</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>731</c:v>
+                  <c:v>729</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>2181</c:v>
+                  <c:v>2176</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>2887</c:v>
+                  <c:v>2886</c:v>
                 </c:pt>
                 <c:pt idx="20">
                   <c:v>1612</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>105</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>68</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>491</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>266</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>462</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>212</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>896</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>398</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>630</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>909</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>1657</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>557</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>871</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>263</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>210</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>790</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>1355</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>1436</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>712</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>1231</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>2479</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>3403</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>3064</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>2505</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>2090</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>479</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>327</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>256</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>168</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>385</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>554</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>385</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>296</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>223</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>47</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>311</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>3785</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>3018</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>3167</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>3024</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>158</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>37</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>36</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>31</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>55</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>29</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>62</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>62</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>43</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>29</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>51</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>53</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>39</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>38</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>39</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>46</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>56</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>41</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>47</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>42</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="104">
+                  <c:v>41</c:v>
+                </c:pt>
+                <c:pt idx="105">
+                  <c:v>34</c:v>
+                </c:pt>
+                <c:pt idx="106">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="107">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="108">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="109">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="110">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="111">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="112">
+                  <c:v>66</c:v>
+                </c:pt>
+                <c:pt idx="113">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="114">
+                  <c:v>30</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-FA60-4BB1-8B60-FE69888B381A}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
         <c:gapWidth val="100"/>
         <c:shape val="box"/>
         <c:axId val="59841401"/>
@@ -637,7 +1496,7 @@
         <c:spPr>
           <a:ln>
             <a:solidFill>
-              <a:srgbClr val="b3b3b3"/>
+              <a:srgbClr val="B3B3B3"/>
             </a:solidFill>
           </a:ln>
         </c:spPr>
@@ -646,10 +1505,11 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+              <a:defRPr sz="1000" b="0" strike="noStrike" spc="-1">
                 <a:latin typeface="Arial"/>
               </a:defRPr>
             </a:pPr>
+            <a:endParaRPr lang="es-MX"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="4336511"/>
@@ -670,7 +1530,7 @@
           <c:spPr>
             <a:ln>
               <a:solidFill>
-                <a:srgbClr val="b3b3b3"/>
+                <a:srgbClr val="B3B3B3"/>
               </a:solidFill>
             </a:ln>
           </c:spPr>
@@ -682,7 +1542,7 @@
         <c:spPr>
           <a:ln>
             <a:solidFill>
-              <a:srgbClr val="b3b3b3"/>
+              <a:srgbClr val="B3B3B3"/>
             </a:solidFill>
           </a:ln>
         </c:spPr>
@@ -691,10 +1551,11 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+              <a:defRPr sz="1000" b="0" strike="noStrike" spc="-1">
                 <a:latin typeface="Arial"/>
               </a:defRPr>
             </a:pPr>
+            <a:endParaRPr lang="es-MX"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="59841401"/>
@@ -708,10 +1569,10 @@
         <c:manualLayout>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.830926932933308"/>
-          <c:y val="0.0318922749822821"/>
-          <c:w val="0.146509156822301"/>
-          <c:h val="0.0602409638554217"/>
+          <c:x val="0.83092693293330799"/>
+          <c:y val="3.1892274982282101E-2"/>
+          <c:w val="0.14650915682230101"/>
+          <c:h val="6.02409638554217E-2"/>
         </c:manualLayout>
       </c:layout>
       <c:overlay val="0"/>
@@ -726,50 +1587,63 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+            <a:defRPr sz="1000" b="0" strike="noStrike" spc="-1">
               <a:latin typeface="Arial"/>
             </a:defRPr>
           </a:pPr>
+          <a:endParaRPr lang="es-MX"/>
         </a:p>
       </c:txPr>
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="1"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
-      <a:srgbClr val="ffffff"/>
+      <a:srgbClr val="FFFFFF"/>
     </a:solidFill>
     <a:ln>
       <a:noFill/>
     </a:ln>
   </c:spPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
 </c:chartSpace>
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>13</xdr:col>
-      <xdr:colOff>27000</xdr:colOff>
+      <xdr:colOff>25095</xdr:colOff>
       <xdr:row>8</xdr:row>
-      <xdr:rowOff>136080</xdr:rowOff>
+      <xdr:rowOff>132270</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>20</xdr:col>
-      <xdr:colOff>97200</xdr:colOff>
-      <xdr:row>30</xdr:row>
-      <xdr:rowOff>115560</xdr:rowOff>
+      <xdr:col>35</xdr:col>
+      <xdr:colOff>583406</xdr:colOff>
+      <xdr:row>47</xdr:row>
+      <xdr:rowOff>154781</xdr:rowOff>
     </xdr:to>
-    <xdr:graphicFrame>
+    <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="0" name=""/>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="11251800" y="1436400"/>
-        <a:ext cx="5759640" cy="3555720"/>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -782,1032 +1656,2343 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+  <a:themeElements>
+    <a:clrScheme name="Office">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="44546A"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="E7E6E6"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="4472C4"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="ED7D31"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="A5A5A5"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="FFC000"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="5B9BD5"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="70AD47"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0563C1"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="954F72"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック Light"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线 Light"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Office">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="110000"/>
+                <a:satMod val="105000"/>
+                <a:tint val="67000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="103000"/>
+                <a:tint val="73000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="109000"/>
+                <a:tint val="81000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:satMod val="103000"/>
+                <a:lumMod val="102000"/>
+                <a:tint val="94000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:satMod val="110000"/>
+                <a:lumMod val="100000"/>
+                <a:shade val="100000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="99000"/>
+                <a:satMod val="120000"/>
+                <a:shade val="78000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="63000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:tint val="95000"/>
+            <a:satMod val="170000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="93000"/>
+                <a:satMod val="150000"/>
+                <a:shade val="98000"/>
+                <a:lumMod val="102000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:tint val="98000"/>
+                <a:satMod val="130000"/>
+                <a:shade val="90000"/>
+                <a:lumMod val="103000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="63000"/>
+                <a:satMod val="120000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
+  <a:extLst>
+    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+    </a:ext>
+  </a:extLst>
+</a:theme>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
-  <dimension ref="A1:Q31"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:Q126"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="V25" activeCellId="0" sqref="V25"/>
+    <sheetView tabSelected="1" topLeftCell="A5" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
+      <selection activeCell="N127" sqref="N127"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="17.82"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="35.39"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="11.96"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="18.58"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="4.83"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="5.72"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="9.29"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="10.18"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="7.51"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="0" width="10.69"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="0" width="4.07"/>
+    <col min="1" max="1" width="17.77734375" customWidth="1"/>
+    <col min="2" max="2" width="35.33203125" customWidth="1"/>
+    <col min="3" max="3" width="12" customWidth="1"/>
+    <col min="4" max="4" width="18.5546875" customWidth="1"/>
+    <col min="5" max="5" width="4.77734375" customWidth="1"/>
+    <col min="6" max="6" width="5.6640625" customWidth="1"/>
+    <col min="7" max="7" width="9.33203125" customWidth="1"/>
+    <col min="8" max="8" width="10.21875" customWidth="1"/>
+    <col min="9" max="9" width="7.5546875" customWidth="1"/>
+    <col min="10" max="10" width="10.6640625" customWidth="1"/>
+    <col min="11" max="11" width="4.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="0" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="0" t="n">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1">
         <v>1</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="0" t="s">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="0" t="s">
+      <c r="B2" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="0" t="s">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="0" t="s">
+      <c r="B3" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="0" t="s">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
         <v>5</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="0" t="s">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
         <v>7</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="0" t="s">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
         <v>9</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="0" t="s">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
         <v>11</v>
       </c>
-      <c r="B7" s="0" t="s">
+      <c r="B7" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="0" t="s">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
         <v>13</v>
       </c>
-      <c r="B8" s="0" t="s">
+      <c r="B8" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="0" t="s">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
         <v>3</v>
       </c>
-      <c r="B10" s="0" t="s">
+      <c r="B10" t="s">
         <v>15</v>
       </c>
-      <c r="C10" s="0" t="s">
+      <c r="C10" t="s">
         <v>11</v>
       </c>
-      <c r="D10" s="0" t="s">
+      <c r="D10" t="s">
         <v>16</v>
       </c>
-      <c r="E10" s="0" t="s">
+      <c r="E10" t="s">
         <v>17</v>
       </c>
-      <c r="F10" s="0" t="s">
+      <c r="F10" t="s">
         <v>18</v>
       </c>
-      <c r="G10" s="0" t="s">
+      <c r="G10" t="s">
         <v>19</v>
       </c>
-      <c r="H10" s="0" t="s">
+      <c r="H10" t="s">
         <v>20</v>
       </c>
-      <c r="I10" s="0" t="s">
+      <c r="I10" t="s">
         <v>21</v>
       </c>
-      <c r="J10" s="0" t="s">
+      <c r="J10" t="s">
         <v>22</v>
       </c>
-      <c r="K10" s="0" t="s">
+      <c r="K10" t="s">
         <v>23</v>
       </c>
       <c r="L10" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="M10" s="0" t="s">
+      <c r="M10" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="0" t="s">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
         <v>4</v>
       </c>
-      <c r="B11" s="0" t="s">
+      <c r="B11" t="s">
         <v>26</v>
       </c>
-      <c r="C11" s="0" t="s">
+      <c r="C11" t="s">
         <v>12</v>
       </c>
       <c r="D11" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="E11" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="F11" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="G11" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="H11" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="I11" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="J11" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="K11" s="0" t="n">
+      <c r="E11">
+        <v>0</v>
+      </c>
+      <c r="F11">
+        <v>0</v>
+      </c>
+      <c r="G11">
+        <v>0</v>
+      </c>
+      <c r="H11">
+        <v>0</v>
+      </c>
+      <c r="I11">
+        <v>0</v>
+      </c>
+      <c r="J11">
+        <v>0</v>
+      </c>
+      <c r="K11">
         <v>0</v>
       </c>
       <c r="L11" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="M11" s="0" t="n">
-        <f aca="false">F11+E11</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="0" t="s">
+      <c r="M11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
         <v>4</v>
       </c>
-      <c r="B12" s="0" t="s">
+      <c r="B12" t="s">
         <v>26</v>
       </c>
-      <c r="C12" s="0" t="s">
+      <c r="C12" t="s">
         <v>12</v>
       </c>
       <c r="D12" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="E12" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="F12" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="G12" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="H12" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="I12" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="J12" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="K12" s="0" t="n">
+      <c r="E12">
+        <v>0</v>
+      </c>
+      <c r="F12">
+        <v>0</v>
+      </c>
+      <c r="G12">
+        <v>0</v>
+      </c>
+      <c r="H12">
+        <v>0</v>
+      </c>
+      <c r="I12">
+        <v>0</v>
+      </c>
+      <c r="J12">
+        <v>0</v>
+      </c>
+      <c r="K12">
         <v>0</v>
       </c>
       <c r="L12" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="M12" s="0" t="n">
-        <f aca="false">F12+E12</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="0" t="s">
+      <c r="M12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
         <v>4</v>
       </c>
-      <c r="B13" s="0" t="s">
+      <c r="B13" t="s">
         <v>26</v>
       </c>
-      <c r="C13" s="0" t="s">
+      <c r="C13" t="s">
         <v>12</v>
       </c>
       <c r="D13" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="E13" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="F13" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="G13" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="H13" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="I13" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="J13" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="K13" s="0" t="n">
+      <c r="E13">
+        <v>0</v>
+      </c>
+      <c r="F13">
+        <v>0</v>
+      </c>
+      <c r="G13">
+        <v>0</v>
+      </c>
+      <c r="H13">
+        <v>0</v>
+      </c>
+      <c r="I13">
+        <v>0</v>
+      </c>
+      <c r="J13">
+        <v>0</v>
+      </c>
+      <c r="K13">
         <v>0</v>
       </c>
       <c r="L13" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="M13" s="0" t="n">
-        <f aca="false">F13+E13</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="0" t="s">
+      <c r="M13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
         <v>4</v>
       </c>
-      <c r="B14" s="0" t="s">
+      <c r="B14" t="s">
         <v>26</v>
       </c>
-      <c r="C14" s="0" t="s">
+      <c r="C14" t="s">
         <v>12</v>
       </c>
       <c r="D14" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="E14" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="F14" s="0" t="n">
+      <c r="E14">
+        <v>0</v>
+      </c>
+      <c r="F14">
         <v>25</v>
       </c>
-      <c r="G14" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="H14" s="0" t="n">
+      <c r="G14">
+        <v>0</v>
+      </c>
+      <c r="H14">
         <v>1581611</v>
       </c>
-      <c r="I14" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="J14" s="0" t="n">
+      <c r="I14">
+        <v>0</v>
+      </c>
+      <c r="J14">
         <v>1581611</v>
       </c>
-      <c r="K14" s="0" t="n">
+      <c r="K14">
         <v>0</v>
       </c>
       <c r="L14" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="M14" s="0" t="n">
-        <f aca="false">F14+E14</f>
+      <c r="M14">
         <v>25</v>
       </c>
     </row>
-    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="0" t="s">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
         <v>4</v>
       </c>
-      <c r="B15" s="0" t="s">
+      <c r="B15" t="s">
         <v>26</v>
       </c>
-      <c r="C15" s="0" t="s">
+      <c r="C15" t="s">
         <v>12</v>
       </c>
       <c r="D15" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="E15" s="0" t="n">
+      <c r="E15">
         <v>5</v>
       </c>
-      <c r="F15" s="0" t="n">
+      <c r="F15">
         <v>717</v>
       </c>
-      <c r="G15" s="0" t="n">
+      <c r="G15">
         <v>2376</v>
       </c>
-      <c r="H15" s="0" t="n">
+      <c r="H15">
         <v>45251754</v>
       </c>
-      <c r="I15" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="J15" s="0" t="n">
+      <c r="I15">
+        <v>0</v>
+      </c>
+      <c r="J15">
         <v>45254130</v>
       </c>
-      <c r="K15" s="0" t="n">
+      <c r="K15">
         <v>0</v>
       </c>
       <c r="L15" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="M15" s="0" t="n">
-        <f aca="false">F15+E15</f>
-        <v>722</v>
-      </c>
-    </row>
-    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="0" t="s">
+      <c r="M15">
+        <v>717</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
         <v>4</v>
       </c>
-      <c r="B16" s="0" t="s">
+      <c r="B16" t="s">
         <v>26</v>
       </c>
-      <c r="C16" s="0" t="s">
+      <c r="C16" t="s">
         <v>12</v>
       </c>
       <c r="D16" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="E16" s="0" t="n">
+      <c r="E16">
         <v>4</v>
       </c>
-      <c r="F16" s="0" t="n">
+      <c r="F16">
         <v>269</v>
       </c>
-      <c r="G16" s="0" t="n">
+      <c r="G16">
         <v>2340</v>
       </c>
-      <c r="H16" s="0" t="n">
+      <c r="H16">
         <v>14611093</v>
       </c>
-      <c r="I16" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="J16" s="0" t="n">
+      <c r="I16">
+        <v>0</v>
+      </c>
+      <c r="J16">
         <v>14613433</v>
       </c>
-      <c r="K16" s="0" t="n">
+      <c r="K16">
         <v>0</v>
       </c>
       <c r="L16" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="M16" s="0" t="n">
-        <f aca="false">F16+E16</f>
-        <v>273</v>
-      </c>
-    </row>
-    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="0" t="s">
+      <c r="M16">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
         <v>4</v>
       </c>
-      <c r="B17" s="0" t="s">
+      <c r="B17" t="s">
         <v>26</v>
       </c>
-      <c r="C17" s="0" t="s">
+      <c r="C17" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="E17" s="0" t="n">
+      <c r="E17">
         <v>3</v>
       </c>
-      <c r="F17" s="0" t="n">
+      <c r="F17">
         <v>417</v>
       </c>
-      <c r="G17" s="0" t="n">
+      <c r="G17">
         <v>1377</v>
       </c>
-      <c r="H17" s="0" t="n">
+      <c r="H17">
         <v>30201635</v>
       </c>
-      <c r="I17" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="J17" s="0" t="n">
+      <c r="I17">
+        <v>0</v>
+      </c>
+      <c r="J17">
         <v>30203012</v>
       </c>
-      <c r="K17" s="0" t="n">
+      <c r="K17">
         <v>0</v>
       </c>
       <c r="L17" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="M17" s="0" t="n">
-        <f aca="false">F17+E17</f>
-        <v>420</v>
-      </c>
-    </row>
-    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="0" t="s">
+      <c r="M17">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
         <v>4</v>
       </c>
-      <c r="B18" s="0" t="s">
+      <c r="B18" t="s">
         <v>26</v>
       </c>
-      <c r="C18" s="0" t="s">
+      <c r="C18" t="s">
         <v>12</v>
       </c>
       <c r="D18" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="E18" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="F18" s="0" t="n">
+      <c r="E18">
+        <v>0</v>
+      </c>
+      <c r="F18">
         <v>446</v>
       </c>
-      <c r="G18" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="H18" s="0" t="n">
+      <c r="G18">
+        <v>0</v>
+      </c>
+      <c r="H18">
         <v>36178230</v>
       </c>
-      <c r="I18" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="J18" s="0" t="n">
+      <c r="I18">
+        <v>0</v>
+      </c>
+      <c r="J18">
         <v>36178230</v>
       </c>
-      <c r="K18" s="0" t="n">
+      <c r="K18">
         <v>0</v>
       </c>
       <c r="L18" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="M18" s="0" t="n">
-        <f aca="false">F18+E18</f>
+      <c r="M18">
         <v>446</v>
       </c>
     </row>
-    <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="0" t="s">
+    <row r="19" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
         <v>4</v>
       </c>
-      <c r="B19" s="0" t="s">
+      <c r="B19" t="s">
         <v>26</v>
       </c>
-      <c r="C19" s="0" t="s">
+      <c r="C19" t="s">
         <v>12</v>
       </c>
       <c r="D19" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="E19" s="2" t="n">
+      <c r="E19" s="2">
         <v>19</v>
       </c>
-      <c r="F19" s="2" t="n">
+      <c r="F19" s="2">
         <v>1509</v>
       </c>
-      <c r="G19" s="2" t="n">
+      <c r="G19" s="2">
         <v>10070</v>
       </c>
-      <c r="H19" s="2" t="n">
+      <c r="H19" s="2">
         <v>81602194</v>
       </c>
-      <c r="I19" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="J19" s="2" t="n">
+      <c r="I19" s="2">
+        <v>0</v>
+      </c>
+      <c r="J19" s="2">
         <v>81612264</v>
       </c>
-      <c r="K19" s="0" t="n">
+      <c r="K19">
         <v>0</v>
       </c>
       <c r="L19" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="M19" s="0" t="n">
-        <f aca="false">F19+E19</f>
-        <v>1528</v>
+      <c r="M19" s="2">
+        <v>1509</v>
       </c>
       <c r="N19" s="2"/>
       <c r="O19" s="2"/>
       <c r="P19" s="2"/>
       <c r="Q19" s="2"/>
     </row>
-    <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="0" t="s">
+    <row r="20" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
         <v>4</v>
       </c>
-      <c r="B20" s="0" t="s">
+      <c r="B20" t="s">
         <v>26</v>
       </c>
-      <c r="C20" s="0" t="s">
+      <c r="C20" t="s">
         <v>12</v>
       </c>
       <c r="D20" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="E20" s="0" t="n">
+      <c r="E20">
         <v>1</v>
       </c>
-      <c r="F20" s="0" t="n">
+      <c r="F20">
         <v>463</v>
       </c>
-      <c r="G20" s="0" t="n">
+      <c r="G20">
         <v>585</v>
       </c>
-      <c r="H20" s="0" t="n">
+      <c r="H20">
         <v>32813195</v>
       </c>
-      <c r="I20" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="J20" s="0" t="n">
+      <c r="I20">
+        <v>0</v>
+      </c>
+      <c r="J20">
         <v>32813780</v>
       </c>
-      <c r="K20" s="0" t="n">
+      <c r="K20">
         <v>0</v>
       </c>
       <c r="L20" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="M20" s="0" t="n">
-        <f aca="false">F20+E20</f>
-        <v>464</v>
-      </c>
-    </row>
-    <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="0" t="s">
+      <c r="M20">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
         <v>4</v>
       </c>
-      <c r="B21" s="0" t="s">
+      <c r="B21" t="s">
         <v>26</v>
       </c>
-      <c r="C21" s="0" t="s">
+      <c r="C21" t="s">
         <v>12</v>
       </c>
       <c r="D21" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="E21" s="0" t="n">
+      <c r="E21">
         <v>2</v>
       </c>
-      <c r="F21" s="0" t="n">
+      <c r="F21">
         <v>396</v>
       </c>
-      <c r="G21" s="0" t="n">
+      <c r="G21">
         <v>1170</v>
       </c>
-      <c r="H21" s="0" t="n">
+      <c r="H21">
         <v>29562716</v>
       </c>
-      <c r="I21" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="J21" s="0" t="n">
+      <c r="I21">
+        <v>0</v>
+      </c>
+      <c r="J21">
         <v>29563886</v>
       </c>
-      <c r="K21" s="0" t="n">
+      <c r="K21">
         <v>0</v>
       </c>
       <c r="L21" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="M21" s="0" t="n">
-        <f aca="false">F21+E21</f>
-        <v>398</v>
-      </c>
-    </row>
-    <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="0" t="s">
+      <c r="M21">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
         <v>4</v>
       </c>
-      <c r="B22" s="0" t="s">
+      <c r="B22" t="s">
         <v>26</v>
       </c>
-      <c r="C22" s="0" t="s">
+      <c r="C22" t="s">
         <v>12</v>
       </c>
       <c r="D22" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="E22" s="0" t="n">
+      <c r="E22">
         <v>4</v>
       </c>
-      <c r="F22" s="0" t="n">
+      <c r="F22">
         <v>129</v>
       </c>
-      <c r="G22" s="0" t="n">
+      <c r="G22">
         <v>1791</v>
       </c>
-      <c r="H22" s="0" t="n">
+      <c r="H22">
         <v>5773207</v>
       </c>
-      <c r="I22" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="J22" s="0" t="n">
+      <c r="I22">
+        <v>0</v>
+      </c>
+      <c r="J22">
         <v>5774998</v>
       </c>
-      <c r="K22" s="0" t="n">
+      <c r="K22">
         <v>0</v>
       </c>
       <c r="L22" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="M22" s="0" t="n">
-        <f aca="false">F22+E22</f>
-        <v>133</v>
-      </c>
-    </row>
-    <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="0" t="s">
+      <c r="M22">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
         <v>4</v>
       </c>
-      <c r="B23" s="0" t="s">
+      <c r="B23" t="s">
         <v>26</v>
       </c>
-      <c r="C23" s="0" t="s">
+      <c r="C23" t="s">
         <v>12</v>
       </c>
       <c r="D23" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="E23" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="F23" s="0" t="n">
+      <c r="E23">
+        <v>0</v>
+      </c>
+      <c r="F23">
         <v>131</v>
       </c>
-      <c r="G23" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="H23" s="0" t="n">
+      <c r="G23">
+        <v>0</v>
+      </c>
+      <c r="H23">
         <v>8408933</v>
       </c>
-      <c r="I23" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="J23" s="0" t="n">
+      <c r="I23">
+        <v>0</v>
+      </c>
+      <c r="J23">
         <v>8408933</v>
       </c>
-      <c r="K23" s="0" t="n">
+      <c r="K23">
         <v>0</v>
       </c>
       <c r="L23" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="M23" s="0" t="n">
-        <f aca="false">F23+E23</f>
+      <c r="M23">
         <v>131</v>
       </c>
     </row>
-    <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="0" t="s">
+    <row r="24" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
         <v>4</v>
       </c>
-      <c r="B24" s="0" t="s">
+      <c r="B24" t="s">
         <v>26</v>
       </c>
-      <c r="C24" s="0" t="s">
+      <c r="C24" t="s">
         <v>12</v>
       </c>
       <c r="D24" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="E24" s="0" t="n">
+      <c r="E24">
         <v>7</v>
       </c>
-      <c r="F24" s="0" t="n">
+      <c r="F24">
         <v>242</v>
       </c>
-      <c r="G24" s="0" t="n">
+      <c r="G24">
         <v>4105</v>
       </c>
-      <c r="H24" s="0" t="n">
+      <c r="H24">
         <v>19389130</v>
       </c>
-      <c r="I24" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="J24" s="0" t="n">
+      <c r="I24">
+        <v>0</v>
+      </c>
+      <c r="J24">
         <v>19393235</v>
       </c>
-      <c r="K24" s="0" t="n">
+      <c r="K24">
         <v>0</v>
       </c>
       <c r="L24" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="M24" s="0" t="n">
-        <f aca="false">F24+E24</f>
-        <v>249</v>
-      </c>
-    </row>
-    <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="0" t="s">
+      <c r="M24">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
         <v>4</v>
       </c>
-      <c r="B25" s="0" t="s">
+      <c r="B25" t="s">
         <v>26</v>
       </c>
-      <c r="C25" s="0" t="s">
+      <c r="C25" t="s">
         <v>12</v>
       </c>
       <c r="D25" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="E25" s="0" t="n">
+      <c r="E25">
         <v>11</v>
       </c>
-      <c r="F25" s="0" t="n">
+      <c r="F25">
         <v>1046</v>
       </c>
-      <c r="G25" s="0" t="n">
+      <c r="G25">
         <v>5347</v>
       </c>
-      <c r="H25" s="0" t="n">
+      <c r="H25">
         <v>60182464</v>
       </c>
-      <c r="I25" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="J25" s="0" t="n">
+      <c r="I25">
+        <v>0</v>
+      </c>
+      <c r="J25">
         <v>60187811</v>
       </c>
-      <c r="K25" s="0" t="n">
+      <c r="K25">
         <v>0</v>
       </c>
       <c r="L25" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="M25" s="0" t="n">
-        <f aca="false">F25+E25</f>
-        <v>1057</v>
+      <c r="M25">
+        <v>1046</v>
       </c>
       <c r="N25" s="2"/>
       <c r="O25" s="2"/>
       <c r="P25" s="2"/>
       <c r="Q25" s="2"/>
     </row>
-    <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="0" t="s">
+    <row r="26" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
         <v>4</v>
       </c>
-      <c r="B26" s="0" t="s">
+      <c r="B26" t="s">
         <v>26</v>
       </c>
-      <c r="C26" s="0" t="s">
+      <c r="C26" t="s">
         <v>12</v>
       </c>
       <c r="D26" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="E26" s="0" t="n">
+      <c r="E26">
         <v>1</v>
       </c>
-      <c r="F26" s="0" t="n">
+      <c r="F26">
         <v>1226</v>
       </c>
-      <c r="G26" s="0" t="n">
+      <c r="G26">
         <v>585</v>
       </c>
-      <c r="H26" s="0" t="n">
+      <c r="H26">
         <v>72316020</v>
       </c>
-      <c r="I26" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="J26" s="0" t="n">
+      <c r="I26">
+        <v>0</v>
+      </c>
+      <c r="J26">
         <v>72316605</v>
       </c>
-      <c r="K26" s="0" t="n">
+      <c r="K26">
         <v>0</v>
       </c>
       <c r="L26" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="M26" s="0" t="n">
-        <f aca="false">F26+E26</f>
-        <v>1227</v>
-      </c>
-    </row>
-    <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="0" t="s">
+      <c r="M26">
+        <v>1226</v>
+      </c>
+    </row>
+    <row r="27" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
         <v>4</v>
       </c>
-      <c r="B27" s="0" t="s">
+      <c r="B27" t="s">
         <v>26</v>
       </c>
-      <c r="C27" s="0" t="s">
+      <c r="C27" t="s">
         <v>12</v>
       </c>
       <c r="D27" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="E27" s="0" t="n">
+      <c r="E27">
         <v>1</v>
       </c>
-      <c r="F27" s="0" t="n">
+      <c r="F27">
         <v>608</v>
       </c>
-      <c r="G27" s="0" t="n">
+      <c r="G27">
         <v>592</v>
       </c>
-      <c r="H27" s="0" t="n">
+      <c r="H27">
         <v>30310262</v>
       </c>
-      <c r="I27" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="J27" s="0" t="n">
+      <c r="I27">
+        <v>0</v>
+      </c>
+      <c r="J27">
         <v>30310854</v>
       </c>
-      <c r="K27" s="0" t="n">
+      <c r="K27">
         <v>0</v>
       </c>
       <c r="L27" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="M27" s="0" t="n">
-        <f aca="false">F27+E27</f>
-        <v>609</v>
-      </c>
-    </row>
-    <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="0" t="s">
+      <c r="M27">
+        <v>608</v>
+      </c>
+    </row>
+    <row r="28" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
         <v>4</v>
       </c>
-      <c r="B28" s="0" t="s">
+      <c r="B28" t="s">
         <v>26</v>
       </c>
-      <c r="C28" s="0" t="s">
+      <c r="C28" t="s">
         <v>12</v>
       </c>
       <c r="D28" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="E28" s="0" t="n">
+      <c r="E28">
         <v>2</v>
       </c>
-      <c r="F28" s="0" t="n">
+      <c r="F28">
         <v>729</v>
       </c>
-      <c r="G28" s="0" t="n">
+      <c r="G28">
         <v>1170</v>
       </c>
-      <c r="H28" s="0" t="n">
+      <c r="H28">
         <v>58761009</v>
       </c>
-      <c r="I28" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="J28" s="0" t="n">
+      <c r="I28">
+        <v>0</v>
+      </c>
+      <c r="J28">
         <v>58762179</v>
       </c>
-      <c r="K28" s="0" t="n">
+      <c r="K28">
         <v>0</v>
       </c>
       <c r="L28" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="M28" s="0" t="n">
-        <f aca="false">F28+E28</f>
-        <v>731</v>
-      </c>
-    </row>
-    <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="0" t="s">
+      <c r="M28">
+        <v>729</v>
+      </c>
+    </row>
+    <row r="29" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
         <v>4</v>
       </c>
-      <c r="B29" s="0" t="s">
+      <c r="B29" t="s">
         <v>26</v>
       </c>
-      <c r="C29" s="0" t="s">
+      <c r="C29" t="s">
         <v>12</v>
       </c>
       <c r="D29" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="E29" s="0" t="n">
+      <c r="E29">
         <v>5</v>
       </c>
-      <c r="F29" s="0" t="n">
+      <c r="F29">
         <v>2176</v>
       </c>
-      <c r="G29" s="0" t="n">
+      <c r="G29">
         <v>2924</v>
       </c>
-      <c r="H29" s="0" t="n">
+      <c r="H29">
         <v>197181445</v>
       </c>
-      <c r="I29" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="J29" s="0" t="n">
+      <c r="I29">
+        <v>0</v>
+      </c>
+      <c r="J29">
         <v>197184369</v>
       </c>
-      <c r="K29" s="0" t="n">
+      <c r="K29">
         <v>0</v>
       </c>
       <c r="L29" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="M29" s="0" t="n">
-        <f aca="false">F29+E29</f>
-        <v>2181</v>
-      </c>
-    </row>
-    <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="0" t="s">
+      <c r="M29">
+        <v>2176</v>
+      </c>
+    </row>
+    <row r="30" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
         <v>4</v>
       </c>
-      <c r="B30" s="0" t="s">
+      <c r="B30" t="s">
         <v>26</v>
       </c>
-      <c r="C30" s="0" t="s">
+      <c r="C30" t="s">
         <v>12</v>
       </c>
       <c r="D30" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="E30" s="0" t="n">
+      <c r="E30">
         <v>1</v>
       </c>
-      <c r="F30" s="0" t="n">
+      <c r="F30">
         <v>2886</v>
       </c>
-      <c r="G30" s="0" t="n">
+      <c r="G30">
         <v>585</v>
       </c>
-      <c r="H30" s="0" t="n">
+      <c r="H30">
         <v>258643749</v>
       </c>
-      <c r="I30" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="J30" s="0" t="n">
+      <c r="I30">
+        <v>0</v>
+      </c>
+      <c r="J30">
         <v>258644334</v>
       </c>
-      <c r="K30" s="0" t="n">
+      <c r="K30">
         <v>0</v>
       </c>
       <c r="L30" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="M30" s="0" t="n">
-        <f aca="false">F30+E30</f>
-        <v>2887</v>
-      </c>
-    </row>
-    <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="0" t="s">
+      <c r="M30">
+        <v>2886</v>
+      </c>
+    </row>
+    <row r="31" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
         <v>4</v>
       </c>
-      <c r="B31" s="0" t="s">
+      <c r="B31" t="s">
         <v>26</v>
       </c>
-      <c r="C31" s="0" t="s">
+      <c r="C31" t="s">
         <v>12</v>
       </c>
       <c r="D31" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="E31" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="F31" s="0" t="n">
+      <c r="E31">
+        <v>0</v>
+      </c>
+      <c r="F31">
         <v>1612</v>
       </c>
-      <c r="G31" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="H31" s="0" t="n">
+      <c r="G31">
+        <v>0</v>
+      </c>
+      <c r="H31">
         <v>148446254</v>
       </c>
-      <c r="I31" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="J31" s="0" t="n">
+      <c r="I31">
+        <v>0</v>
+      </c>
+      <c r="J31">
         <v>148446254</v>
       </c>
-      <c r="K31" s="0" t="n">
+      <c r="K31">
         <v>0</v>
       </c>
       <c r="L31" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="M31" s="0" t="n">
-        <f aca="false">F31+E31</f>
+      <c r="M31">
         <v>1612</v>
       </c>
     </row>
+    <row r="32" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="F32">
+        <v>105</v>
+      </c>
+      <c r="L32" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="M32">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="33" spans="6:13" x14ac:dyDescent="0.25">
+      <c r="F33">
+        <v>68</v>
+      </c>
+      <c r="L33" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="M33">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="34" spans="6:13" x14ac:dyDescent="0.25">
+      <c r="F34">
+        <v>491</v>
+      </c>
+      <c r="L34" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="M34">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="35" spans="6:13" x14ac:dyDescent="0.25">
+      <c r="F35">
+        <v>266</v>
+      </c>
+      <c r="L35" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="M35">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="36" spans="6:13" x14ac:dyDescent="0.25">
+      <c r="F36">
+        <v>462</v>
+      </c>
+      <c r="L36" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="M36">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="37" spans="6:13" x14ac:dyDescent="0.25">
+      <c r="F37">
+        <v>212</v>
+      </c>
+      <c r="L37" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="M37">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="38" spans="6:13" x14ac:dyDescent="0.25">
+      <c r="F38">
+        <v>896</v>
+      </c>
+      <c r="L38" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="M38">
+        <v>896</v>
+      </c>
+    </row>
+    <row r="39" spans="6:13" x14ac:dyDescent="0.25">
+      <c r="F39">
+        <v>398</v>
+      </c>
+      <c r="L39" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="M39">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="40" spans="6:13" x14ac:dyDescent="0.25">
+      <c r="F40">
+        <v>630</v>
+      </c>
+      <c r="L40" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="M40">
+        <v>630</v>
+      </c>
+    </row>
+    <row r="41" spans="6:13" x14ac:dyDescent="0.25">
+      <c r="F41">
+        <v>909</v>
+      </c>
+      <c r="L41" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="M41">
+        <v>909</v>
+      </c>
+    </row>
+    <row r="42" spans="6:13" x14ac:dyDescent="0.25">
+      <c r="F42">
+        <v>1657</v>
+      </c>
+      <c r="L42" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="M42">
+        <v>1657</v>
+      </c>
+    </row>
+    <row r="43" spans="6:13" x14ac:dyDescent="0.25">
+      <c r="F43">
+        <v>557</v>
+      </c>
+      <c r="L43" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="M43">
+        <v>557</v>
+      </c>
+    </row>
+    <row r="44" spans="6:13" x14ac:dyDescent="0.25">
+      <c r="F44">
+        <v>871</v>
+      </c>
+      <c r="L44" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="M44">
+        <v>871</v>
+      </c>
+    </row>
+    <row r="45" spans="6:13" x14ac:dyDescent="0.25">
+      <c r="F45">
+        <v>263</v>
+      </c>
+      <c r="L45" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="M45">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="46" spans="6:13" x14ac:dyDescent="0.25">
+      <c r="F46">
+        <v>210</v>
+      </c>
+      <c r="L46" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="M46">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="47" spans="6:13" x14ac:dyDescent="0.25">
+      <c r="F47">
+        <v>790</v>
+      </c>
+      <c r="L47" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="M47">
+        <v>790</v>
+      </c>
+    </row>
+    <row r="48" spans="6:13" x14ac:dyDescent="0.25">
+      <c r="F48">
+        <v>1355</v>
+      </c>
+      <c r="L48" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="M48">
+        <v>1355</v>
+      </c>
+    </row>
+    <row r="49" spans="6:13" x14ac:dyDescent="0.25">
+      <c r="F49">
+        <v>1436</v>
+      </c>
+      <c r="L49" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="M49">
+        <v>1436</v>
+      </c>
+    </row>
+    <row r="50" spans="6:13" x14ac:dyDescent="0.25">
+      <c r="F50">
+        <v>712</v>
+      </c>
+      <c r="L50" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="M50">
+        <v>712</v>
+      </c>
+    </row>
+    <row r="51" spans="6:13" x14ac:dyDescent="0.25">
+      <c r="F51">
+        <v>1231</v>
+      </c>
+      <c r="L51" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="M51">
+        <v>1231</v>
+      </c>
+    </row>
+    <row r="52" spans="6:13" x14ac:dyDescent="0.25">
+      <c r="F52">
+        <v>2479</v>
+      </c>
+      <c r="L52" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="M52">
+        <v>2479</v>
+      </c>
+    </row>
+    <row r="53" spans="6:13" x14ac:dyDescent="0.25">
+      <c r="F53">
+        <v>3403</v>
+      </c>
+      <c r="L53" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="M53">
+        <v>3403</v>
+      </c>
+    </row>
+    <row r="54" spans="6:13" x14ac:dyDescent="0.25">
+      <c r="F54">
+        <v>3064</v>
+      </c>
+      <c r="L54" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="M54">
+        <v>3064</v>
+      </c>
+    </row>
+    <row r="55" spans="6:13" x14ac:dyDescent="0.25">
+      <c r="F55">
+        <v>2505</v>
+      </c>
+      <c r="L55" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="M55">
+        <v>2505</v>
+      </c>
+    </row>
+    <row r="56" spans="6:13" x14ac:dyDescent="0.25">
+      <c r="F56">
+        <v>2090</v>
+      </c>
+      <c r="L56" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="M56">
+        <v>2090</v>
+      </c>
+    </row>
+    <row r="57" spans="6:13" x14ac:dyDescent="0.25">
+      <c r="F57">
+        <v>479</v>
+      </c>
+      <c r="L57" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="M57">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="58" spans="6:13" x14ac:dyDescent="0.25">
+      <c r="F58">
+        <v>327</v>
+      </c>
+      <c r="L58" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="M58">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="59" spans="6:13" x14ac:dyDescent="0.25">
+      <c r="F59">
+        <v>256</v>
+      </c>
+      <c r="L59" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="M59">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="60" spans="6:13" x14ac:dyDescent="0.25">
+      <c r="F60">
+        <v>168</v>
+      </c>
+      <c r="L60" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="M60">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="61" spans="6:13" x14ac:dyDescent="0.25">
+      <c r="F61">
+        <v>385</v>
+      </c>
+      <c r="L61" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="M61">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="62" spans="6:13" x14ac:dyDescent="0.25">
+      <c r="F62">
+        <v>554</v>
+      </c>
+      <c r="L62" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="M62">
+        <v>554</v>
+      </c>
+    </row>
+    <row r="63" spans="6:13" x14ac:dyDescent="0.25">
+      <c r="F63">
+        <v>385</v>
+      </c>
+      <c r="L63" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="M63">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="64" spans="6:13" x14ac:dyDescent="0.25">
+      <c r="F64">
+        <v>296</v>
+      </c>
+      <c r="L64" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="M64">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="65" spans="6:13" x14ac:dyDescent="0.25">
+      <c r="F65">
+        <v>223</v>
+      </c>
+      <c r="L65" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="M65">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="66" spans="6:13" x14ac:dyDescent="0.25">
+      <c r="F66">
+        <v>24</v>
+      </c>
+      <c r="L66" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="M66">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="67" spans="6:13" x14ac:dyDescent="0.25">
+      <c r="F67">
+        <v>47</v>
+      </c>
+      <c r="L67" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="M67">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="68" spans="6:13" x14ac:dyDescent="0.25">
+      <c r="F68">
+        <v>311</v>
+      </c>
+      <c r="L68" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="M68">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="69" spans="6:13" x14ac:dyDescent="0.25">
+      <c r="F69">
+        <v>3785</v>
+      </c>
+      <c r="L69" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="M69">
+        <v>3785</v>
+      </c>
+    </row>
+    <row r="70" spans="6:13" x14ac:dyDescent="0.25">
+      <c r="F70">
+        <v>3018</v>
+      </c>
+      <c r="L70" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="M70">
+        <v>3018</v>
+      </c>
+    </row>
+    <row r="71" spans="6:13" x14ac:dyDescent="0.25">
+      <c r="F71">
+        <v>3167</v>
+      </c>
+      <c r="L71" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="M71">
+        <v>3167</v>
+      </c>
+    </row>
+    <row r="72" spans="6:13" x14ac:dyDescent="0.25">
+      <c r="F72">
+        <v>3024</v>
+      </c>
+      <c r="L72" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="M72">
+        <v>3024</v>
+      </c>
+    </row>
+    <row r="73" spans="6:13" x14ac:dyDescent="0.25">
+      <c r="F73">
+        <v>158</v>
+      </c>
+      <c r="L73" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="M73">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="74" spans="6:13" x14ac:dyDescent="0.25">
+      <c r="F74">
+        <v>35</v>
+      </c>
+      <c r="L74" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="M74">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="75" spans="6:13" x14ac:dyDescent="0.25">
+      <c r="F75">
+        <v>17</v>
+      </c>
+      <c r="L75" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="M75">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="76" spans="6:13" x14ac:dyDescent="0.25">
+      <c r="F76">
+        <v>37</v>
+      </c>
+      <c r="L76" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="M76">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="77" spans="6:13" x14ac:dyDescent="0.25">
+      <c r="F77">
+        <v>19</v>
+      </c>
+      <c r="L77" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="M77">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="78" spans="6:13" x14ac:dyDescent="0.25">
+      <c r="F78">
+        <v>36</v>
+      </c>
+      <c r="L78" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="M78">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="79" spans="6:13" x14ac:dyDescent="0.25">
+      <c r="F79">
+        <v>14</v>
+      </c>
+      <c r="L79" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="M79">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="80" spans="6:13" x14ac:dyDescent="0.25">
+      <c r="F80">
+        <v>31</v>
+      </c>
+      <c r="L80" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="M80">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="81" spans="6:13" x14ac:dyDescent="0.25">
+      <c r="F81">
+        <v>55</v>
+      </c>
+      <c r="L81" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="M81">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="82" spans="6:13" x14ac:dyDescent="0.25">
+      <c r="F82">
+        <v>16</v>
+      </c>
+      <c r="L82" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="M82">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="83" spans="6:13" x14ac:dyDescent="0.25">
+      <c r="F83">
+        <v>29</v>
+      </c>
+      <c r="L83" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="M83">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="84" spans="6:13" x14ac:dyDescent="0.25">
+      <c r="F84">
+        <v>62</v>
+      </c>
+      <c r="L84" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="M84">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="85" spans="6:13" x14ac:dyDescent="0.25">
+      <c r="F85">
+        <v>62</v>
+      </c>
+      <c r="L85" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="M85">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="86" spans="6:13" x14ac:dyDescent="0.25">
+      <c r="F86">
+        <v>43</v>
+      </c>
+      <c r="L86" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="M86">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="87" spans="6:13" x14ac:dyDescent="0.25">
+      <c r="F87">
+        <v>29</v>
+      </c>
+      <c r="L87" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="M87">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="88" spans="6:13" x14ac:dyDescent="0.25">
+      <c r="F88">
+        <v>23</v>
+      </c>
+      <c r="L88" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="M88">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="89" spans="6:13" x14ac:dyDescent="0.25">
+      <c r="F89">
+        <v>51</v>
+      </c>
+      <c r="L89" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="M89">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="90" spans="6:13" x14ac:dyDescent="0.25">
+      <c r="F90">
+        <v>14</v>
+      </c>
+      <c r="L90" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="M90">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="91" spans="6:13" x14ac:dyDescent="0.25">
+      <c r="F91">
+        <v>53</v>
+      </c>
+      <c r="L91" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="M91">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="92" spans="6:13" x14ac:dyDescent="0.25">
+      <c r="F92">
+        <v>25</v>
+      </c>
+      <c r="L92" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="M92">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="93" spans="6:13" x14ac:dyDescent="0.25">
+      <c r="F93">
+        <v>6</v>
+      </c>
+      <c r="L93" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="M93">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="94" spans="6:13" x14ac:dyDescent="0.25">
+      <c r="F94">
+        <v>39</v>
+      </c>
+      <c r="L94" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="M94">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="95" spans="6:13" x14ac:dyDescent="0.25">
+      <c r="F95">
+        <v>25</v>
+      </c>
+      <c r="L95" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="M95">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="96" spans="6:13" x14ac:dyDescent="0.25">
+      <c r="F96">
+        <v>30</v>
+      </c>
+      <c r="L96" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="M96">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="97" spans="6:13" x14ac:dyDescent="0.25">
+      <c r="F97">
+        <v>20</v>
+      </c>
+      <c r="L97" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="M97">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="98" spans="6:13" x14ac:dyDescent="0.25">
+      <c r="F98">
+        <v>24</v>
+      </c>
+      <c r="L98" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="M98">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="99" spans="6:13" x14ac:dyDescent="0.25">
+      <c r="F99">
+        <v>38</v>
+      </c>
+      <c r="L99" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="M99">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="100" spans="6:13" x14ac:dyDescent="0.25">
+      <c r="F100">
+        <v>39</v>
+      </c>
+      <c r="L100" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="M100">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="101" spans="6:13" x14ac:dyDescent="0.25">
+      <c r="F101">
+        <v>46</v>
+      </c>
+      <c r="L101" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="M101">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="102" spans="6:13" x14ac:dyDescent="0.25">
+      <c r="F102">
+        <v>56</v>
+      </c>
+      <c r="L102" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="M102">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="103" spans="6:13" x14ac:dyDescent="0.25">
+      <c r="F103">
+        <v>41</v>
+      </c>
+      <c r="L103" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="M103">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="104" spans="6:13" x14ac:dyDescent="0.25">
+      <c r="F104">
+        <v>4</v>
+      </c>
+      <c r="L104" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="M104">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="105" spans="6:13" x14ac:dyDescent="0.25">
+      <c r="F105">
+        <v>25</v>
+      </c>
+      <c r="L105" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="M105">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="106" spans="6:13" x14ac:dyDescent="0.25">
+      <c r="F106">
+        <v>11</v>
+      </c>
+      <c r="L106" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="M106">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="107" spans="6:13" x14ac:dyDescent="0.25">
+      <c r="F107">
+        <v>47</v>
+      </c>
+      <c r="L107" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="M107">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="108" spans="6:13" x14ac:dyDescent="0.25">
+      <c r="F108">
+        <v>80</v>
+      </c>
+      <c r="L108" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="M108">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="109" spans="6:13" x14ac:dyDescent="0.25">
+      <c r="F109">
+        <v>60</v>
+      </c>
+      <c r="L109" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="M109">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="110" spans="6:13" x14ac:dyDescent="0.25">
+      <c r="F110">
+        <v>42</v>
+      </c>
+      <c r="L110" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="M110">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="111" spans="6:13" x14ac:dyDescent="0.25">
+      <c r="F111">
+        <v>16</v>
+      </c>
+      <c r="L111" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="M111">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="112" spans="6:13" x14ac:dyDescent="0.25">
+      <c r="F112">
+        <v>18</v>
+      </c>
+      <c r="L112" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="M112">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="113" spans="6:14" x14ac:dyDescent="0.25">
+      <c r="F113">
+        <v>10</v>
+      </c>
+      <c r="L113" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="M113">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="114" spans="6:14" x14ac:dyDescent="0.25">
+      <c r="F114">
+        <v>40</v>
+      </c>
+      <c r="L114" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="M114">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="115" spans="6:14" x14ac:dyDescent="0.25">
+      <c r="F115">
+        <v>41</v>
+      </c>
+      <c r="L115" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="M115">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="116" spans="6:14" x14ac:dyDescent="0.25">
+      <c r="F116">
+        <v>34</v>
+      </c>
+      <c r="L116" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="M116">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="117" spans="6:14" x14ac:dyDescent="0.25">
+      <c r="F117">
+        <v>50</v>
+      </c>
+      <c r="L117" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="M117">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="118" spans="6:14" x14ac:dyDescent="0.25">
+      <c r="F118">
+        <v>70</v>
+      </c>
+      <c r="L118" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="M118">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="119" spans="6:14" x14ac:dyDescent="0.25">
+      <c r="F119">
+        <v>45</v>
+      </c>
+      <c r="L119" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="M119">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="120" spans="6:14" x14ac:dyDescent="0.25">
+      <c r="F120">
+        <v>21</v>
+      </c>
+      <c r="L120" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="M120">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="121" spans="6:14" x14ac:dyDescent="0.25">
+      <c r="F121">
+        <v>8</v>
+      </c>
+      <c r="L121" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="M121">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="122" spans="6:14" x14ac:dyDescent="0.25">
+      <c r="F122">
+        <v>24</v>
+      </c>
+      <c r="L122" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="M122">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="123" spans="6:14" x14ac:dyDescent="0.25">
+      <c r="F123">
+        <v>66</v>
+      </c>
+      <c r="L123" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="M123">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="124" spans="6:14" x14ac:dyDescent="0.25">
+      <c r="F124">
+        <v>14</v>
+      </c>
+      <c r="L124" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="M124">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="125" spans="6:14" x14ac:dyDescent="0.25">
+      <c r="F125">
+        <v>30</v>
+      </c>
+      <c r="L125" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="M125">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="126" spans="6:14" x14ac:dyDescent="0.25">
+      <c r="N126">
+        <f>SUM(M11:M125)</f>
+        <v>60465</v>
+      </c>
+    </row>
   </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="true" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
+  <pageSetup orientation="portrait" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300"/>
+  <headerFooter>
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
   </headerFooter>
